--- a/BC4400S23/Lecture10/univar_regression_handrolled_coeffs_fit.xlsx
+++ b/BC4400S23/Lecture10/univar_regression_handrolled_coeffs_fit.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400S23/Lecture10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Desktop/Lecture10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{16426467-566F-4334-8DDD-BEC063E257DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F3FE49A-AB88-4D67-A0EC-2DED8FF8D568}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{16426467-566F-4334-8DDD-BEC063E257DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16B6203C-8104-4F23-AA79-9716503AF10C}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{6589BF1D-2CC1-4E2F-8F47-CAC41A9A6C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Handrolled" sheetId="2" r:id="rId1"/>
     <sheet name="Excel reg output" sheetId="3" r:id="rId2"/>
+    <sheet name="Excel reg output charts" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>X</t>
   </si>
@@ -43,21 +44,12 @@
     <t>Y</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>xy</t>
   </si>
   <si>
     <t>x^2</t>
   </si>
   <si>
-    <t>b1 = 19/14</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -151,12 +143,6 @@
     <t>Residuals</t>
   </si>
   <si>
-    <t>R2 = ESS/TSS</t>
-  </si>
-  <si>
-    <t>Y_hat</t>
-  </si>
-  <si>
     <t>y^2</t>
   </si>
   <si>
@@ -172,9 +158,6 @@
     <t>ESS</t>
   </si>
   <si>
-    <t>y_hat</t>
-  </si>
-  <si>
     <t>u_hat</t>
   </si>
   <si>
@@ -187,28 +170,55 @@
     <t>n</t>
   </si>
   <si>
-    <t>RMSR = sqrt(RSS/n)</t>
-  </si>
-  <si>
     <t>TSS Check (ESS+RSS)</t>
   </si>
   <si>
-    <t>b0=Ybar - b1*Xbar</t>
-  </si>
-  <si>
-    <t>Excel Output</t>
-  </si>
-  <si>
     <t>Diff.</t>
   </si>
   <si>
     <t>My Calcs</t>
   </si>
   <si>
-    <t>SER = sqrt(RSS/(n-2))</t>
-  </si>
-  <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>y_hat = Y_hat - Y_hat_bar</t>
+  </si>
+  <si>
+    <t>Y_hat = b0 + b1 * X</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>aka SSR</t>
+  </si>
+  <si>
+    <t>b0 = Ybar - b1*Xbar</t>
+  </si>
+  <si>
+    <t>y = Y - Ybar</t>
+  </si>
+  <si>
+    <t>x = X - Xbar</t>
+  </si>
+  <si>
+    <t>RMSR = sqrt (RSS / n)</t>
+  </si>
+  <si>
+    <t>SER = sqrt (RSS / (n-2))</t>
+  </si>
+  <si>
+    <t>R2 = ESS / TSS</t>
+  </si>
+  <si>
+    <t>Measures of fit</t>
+  </si>
+  <si>
+    <t>b1 = covar(X,Y) / var(X)</t>
+  </si>
+  <si>
+    <t>b1 = xy/x^2 = 19/14</t>
   </si>
 </sst>
 </file>
@@ -221,7 +231,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +261,15 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,7 +389,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -391,6 +419,457 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Handrolled!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Excel reg output charts'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2857142857142865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C2F1-42EE-99C6-25D3D9DFD814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="783267056"/>
+        <c:axId val="783261648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="783267056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="783261648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="783261648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="783267056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Handrolled!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Handrolled!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F584-4001-A882-57FD3776746C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Handrolled!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Excel reg output charts'!$B$25:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7142857142857135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F584-4001-A882-57FD3776746C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="783249584"/>
+        <c:axId val="783250000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="783249584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="783250000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="783250000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="783249584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -398,13 +877,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>94658</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>37865</xdr:rowOff>
+      <xdr:rowOff>21536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>319470</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133982</xdr:rowOff>
+      <xdr:rowOff>117653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -427,8 +906,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9002012" y="222448"/>
-          <a:ext cx="3490527" cy="1203621"/>
+          <a:off x="9450929" y="206593"/>
+          <a:ext cx="3490526" cy="1206460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -440,22 +919,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>189152</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>17707</xdr:rowOff>
+      <xdr:colOff>109640</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>349611</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>67556</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>375030</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820F3F58-552E-455D-8C0D-2B055D86FEF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6585931C-DCAE-4526-A19D-CFAC5BB6F474}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -471,8 +950,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9096506" y="1494377"/>
-          <a:ext cx="2119888" cy="603602"/>
+          <a:off x="9465911" y="1476378"/>
+          <a:ext cx="3531104" cy="760635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,22 +963,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>174955</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>23136</xdr:rowOff>
+      <xdr:colOff>206830</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>353826</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>24906</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>336732</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165472</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6585931C-DCAE-4526-A19D-CFAC5BB6F474}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02AEC88-27D6-4670-A189-7E72642007DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -515,8 +994,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9082309" y="2238142"/>
-          <a:ext cx="3444586" cy="740106"/>
+          <a:off x="9563101" y="2319350"/>
+          <a:ext cx="2742473" cy="992094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>153843</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>124537</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9ECCBC-05FB-4BC6-BFAA-D843D4D5D498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8851529" y="3336472"/>
+          <a:ext cx="1935566" cy="737317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>442198</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>70960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>64474</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>151858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5C7333-368A-45E3-9C18-36F952B01F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11104755" y="3216931"/>
+          <a:ext cx="2234847" cy="1006184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,6 +1093,87 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>255814</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277586</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F589A13-2EE9-CA34-4393-B132D8D9DE41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>332014</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5107812F-D9B7-9C43-777A-FFA8C39557B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,24 +1473,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E866E68-70AA-48CD-BC1B-6FC4AADFB492}">
-  <dimension ref="B2:N17"/>
+  <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.3828125" customWidth="1"/>
-    <col min="2" max="2" width="19.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.07421875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.07421875" style="1" customWidth="1"/>
-    <col min="5" max="8" width="8.3828125" style="1" customWidth="1"/>
-    <col min="9" max="13" width="7.84375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.3828125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.84375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.84375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.23046875" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.3046875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
-        <v>57</v>
+      <c r="B2" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -851,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>39</v>
+      <c r="I2" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
@@ -907,8 +1561,8 @@
         <f>F3^2</f>
         <v>9</v>
       </c>
-      <c r="I3" s="11">
-        <f>$C$13+D3*$C$12</f>
+      <c r="I3" s="12">
+        <f>$C$15+D3*$C$13</f>
         <v>2.9285714285714284</v>
       </c>
       <c r="J3" s="12">
@@ -958,28 +1612,28 @@
         <f t="shared" ref="H4:H6" si="3">F4^2</f>
         <v>0</v>
       </c>
-      <c r="I4" s="11">
-        <f t="shared" ref="I4:I6" si="4">$C$13+D4*$C$12</f>
+      <c r="I4" s="12">
+        <f>$C$15+D4*$C$13</f>
         <v>7</v>
       </c>
       <c r="J4" s="12">
-        <f t="shared" ref="J4:J6" si="5">C4-I4</f>
+        <f t="shared" ref="J4:J6" si="4">C4-I4</f>
         <v>-2</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K6" si="6">I4-$C$9</f>
+        <f t="shared" ref="K4:K6" si="5">I4-$C$9</f>
         <v>0</v>
       </c>
       <c r="L4" s="15">
-        <f t="shared" ref="L4:L6" si="7">K4^2</f>
+        <f t="shared" ref="L4:L6" si="6">K4^2</f>
         <v>0</v>
       </c>
       <c r="M4" s="10">
-        <f t="shared" ref="M4:M6" si="8">E4^2</f>
+        <f t="shared" ref="M4:M6" si="7">E4^2</f>
         <v>4</v>
       </c>
       <c r="N4" s="11">
-        <f t="shared" ref="N4:N6" si="9">J4^2</f>
+        <f t="shared" ref="N4:N6" si="8">J4^2</f>
         <v>4</v>
       </c>
     </row>
@@ -1009,28 +1663,28 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="12">
+        <f>$C$15+D5*$C$13</f>
+        <v>8.3571428571428577</v>
+      </c>
+      <c r="J5" s="12">
         <f t="shared" si="4"/>
-        <v>8.3571428571428577</v>
-      </c>
-      <c r="J5" s="12">
+        <v>-1.3571428571428577</v>
+      </c>
+      <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>-1.3571428571428577</v>
-      </c>
-      <c r="K5" s="15">
+        <v>1.3571428571428577</v>
+      </c>
+      <c r="L5" s="15">
         <f t="shared" si="6"/>
-        <v>1.3571428571428577</v>
-      </c>
-      <c r="L5" s="15">
+        <v>1.8418367346938789</v>
+      </c>
+      <c r="M5" s="10">
         <f t="shared" si="7"/>
-        <v>1.8418367346938789</v>
-      </c>
-      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
-        <f t="shared" si="9"/>
         <v>1.8418367346938789</v>
       </c>
     </row>
@@ -1060,28 +1714,28 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="12">
+        <f>$C$15+D6*$C$13</f>
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="J6" s="12">
         <f t="shared" si="4"/>
-        <v>9.7142857142857135</v>
-      </c>
-      <c r="J6" s="12">
+        <v>2.2857142857142865</v>
+      </c>
+      <c r="K6" s="15">
         <f t="shared" si="5"/>
-        <v>2.2857142857142865</v>
-      </c>
-      <c r="K6" s="15">
+        <v>2.7142857142857135</v>
+      </c>
+      <c r="L6" s="15">
         <f t="shared" si="6"/>
-        <v>2.7142857142857135</v>
-      </c>
-      <c r="L6" s="15">
+        <v>7.3673469387755057</v>
+      </c>
+      <c r="M6" s="10">
         <f t="shared" si="7"/>
-        <v>7.3673469387755057</v>
-      </c>
-      <c r="M6" s="10">
+        <v>25</v>
+      </c>
+      <c r="N6" s="11">
         <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="N6" s="11">
-        <f t="shared" si="9"/>
         <v>5.2244897959183705</v>
       </c>
     </row>
@@ -1093,7 +1747,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -1102,7 +1756,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7">
         <f>SUM(C3:C6)</f>
@@ -1113,49 +1767,49 @@
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" ref="E8:N8" si="10">SUM(E3:E6)</f>
+        <f t="shared" ref="E8:N8" si="9">SUM(E3:E6)</f>
         <v>0</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="I8" s="7">
-        <f t="shared" si="10"/>
+      <c r="I8" s="14">
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L8" s="7">
-        <f t="shared" si="10"/>
+      <c r="L8" s="14">
+        <f t="shared" si="9"/>
         <v>25.785714285714278</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="N8" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12.214285714285719</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="7">
         <f>C8/4</f>
@@ -1169,60 +1823,51 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B10" s="13"/>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="8"/>
+      <c r="N10" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="7">
-        <f>COUNT(C3:C6)</f>
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <f>'Excel reg output'!B8</f>
-        <v>4</v>
-      </c>
-      <c r="E11" s="10">
-        <f>C11-D11</f>
-        <v>0</v>
+      <c r="B11" s="13"/>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1231,162 +1876,232 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="16">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7">
+        <f>COUNT(C3:C6)</f>
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <f>'Excel reg output'!B8</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="10">
+        <f>C12-D12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="16">
         <f>SUM(G3:G6)/SUM(H3:H6)</f>
         <v>1.3571428571428572</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D13" s="15">
         <f>'Excel reg output'!B18</f>
         <v>1.3571428571428572</v>
       </c>
-      <c r="E12" s="10">
-        <f t="shared" ref="E12:E16" si="11">C12-D12</f>
+      <c r="E13" s="10">
+        <f t="shared" ref="E13:E19" si="10">C13-D13</f>
         <v>0</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="16">
-        <f>C9-C12*D9</f>
-        <v>1.5714285714285712</v>
-      </c>
-      <c r="D13" s="15">
-        <f>'Excel reg output'!B17</f>
-        <v>1.5714285714285712</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="M13" s="19">
-        <f>L8+N8</f>
-        <v>38</v>
-      </c>
-      <c r="N13" s="12">
-        <f>M8-M13</f>
-        <v>0</v>
+      <c r="L13" s="7"/>
+      <c r="M13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="16">
-        <f>L8/M8</f>
-        <v>0.67857142857142838</v>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="14">
+        <f>_xlfn.COVARIANCE.P(C3:C6,D3:D6)/_xlfn.VAR.P(D3:D6)</f>
+        <v>1.3571428571428572</v>
       </c>
       <c r="D14" s="15">
-        <f>'Excel reg output'!B5</f>
-        <v>0.67857142857142871</v>
+        <f>'Excel reg output'!B18</f>
+        <v>1.3571428571428572</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
+      <c r="M14" s="19">
+        <f>L8+N8</f>
+        <v>38</v>
+      </c>
+      <c r="N14" s="12">
+        <f>M8-M14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="14">
-        <f>1-N8/M8</f>
-        <v>0.67857142857142838</v>
+        <v>52</v>
+      </c>
+      <c r="C15" s="16">
+        <f>C9-C13*D9</f>
+        <v>1.5714285714285712</v>
       </c>
       <c r="D15" s="15">
-        <f>'Excel reg output'!B5</f>
-        <v>0.67857142857142871</v>
+        <f>'Excel reg output'!B17</f>
+        <v>1.5714285714285712</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="11"/>
+        <f>C15-D15</f>
         <v>0</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="14">
-        <f>SQRT(N8/(C11-2))</f>
-        <v>2.4712634131437423</v>
-      </c>
-      <c r="D16" s="15">
-        <f>'Excel reg output'!B7</f>
-        <v>2.4712634131437414</v>
-      </c>
-      <c r="E16" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="14">
-        <f>SQRT(N8/C11)</f>
-        <v>1.7474471175321529</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="16">
+        <f>L8/M8</f>
+        <v>0.67857142857142838</v>
+      </c>
+      <c r="D17" s="15">
+        <f>'Excel reg output'!B5</f>
+        <v>0.67857142857142871</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="14">
+        <f>1-N8/M8</f>
+        <v>0.67857142857142838</v>
+      </c>
+      <c r="D18" s="15">
+        <f>'Excel reg output'!B5</f>
+        <v>0.67857142857142871</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="14">
+        <f>SQRT(N8/(C12-2))</f>
+        <v>2.4712634131437423</v>
+      </c>
+      <c r="D19" s="15">
+        <f>'Excel reg output'!B7</f>
+        <v>2.4712634131437414</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="14">
+        <f>SQRT(N8/C12)</f>
+        <v>1.7474471175321529</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1418,19 +2133,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="17">
         <v>0.82375447104791411</v>
@@ -1438,7 +2153,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="17">
         <v>0.67857142857142871</v>
@@ -1446,7 +2161,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="17">
         <v>0.51785714285714302</v>
@@ -1454,7 +2169,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="17">
         <v>2.4712634131437414</v>
@@ -1462,7 +2177,7 @@
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
@@ -1470,30 +2185,30 @@
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1513,7 +2228,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1529,7 +2244,7 @@
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -1545,33 +2260,33 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="17">
         <v>1.5714285714285712</v>
@@ -1600,7 +2315,7 @@
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="18">
         <v>1.3571428571428572</v>
@@ -1629,19 +2344,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -1691,4 +2406,299 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEBE078-8466-4B07-94DB-F6F1F7BD8080}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.23046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3828125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.53515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4609375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" style="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.82375447104791411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.67857142857142871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.51785714285714302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2.4712634131437414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
+        <v>25.785714285714292</v>
+      </c>
+      <c r="D12" s="17">
+        <v>25.785714285714292</v>
+      </c>
+      <c r="E12" s="17">
+        <v>4.222222222222225</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.17624552895208589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17">
+        <v>12.21428571428571</v>
+      </c>
+      <c r="D13" s="17">
+        <v>6.107142857142855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="18">
+        <v>3</v>
+      </c>
+      <c r="C14" s="18">
+        <v>38</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2.9165694833177569</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.53879346280513962</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.64397845268852227</v>
+      </c>
+      <c r="F17" s="17">
+        <v>-10.977557077472559</v>
+      </c>
+      <c r="G17" s="17">
+        <v>14.120414220329701</v>
+      </c>
+      <c r="H17" s="17">
+        <v>-10.977557077472559</v>
+      </c>
+      <c r="I17" s="17">
+        <v>14.120414220329701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.66047292888953313</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2.0548046676563256</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.17624552895208601</v>
+      </c>
+      <c r="F18" s="18">
+        <v>-1.484642793269316</v>
+      </c>
+      <c r="G18" s="18">
+        <v>4.1989285075550304</v>
+      </c>
+      <c r="H18" s="18">
+        <v>-1.484642793269316</v>
+      </c>
+      <c r="I18" s="18">
+        <v>4.1989285075550304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="17">
+        <v>1</v>
+      </c>
+      <c r="B25" s="17">
+        <v>2.9285714285714284</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1.0714285714285716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="17">
+        <v>2</v>
+      </c>
+      <c r="B26" s="17">
+        <v>7</v>
+      </c>
+      <c r="C26" s="17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="17">
+        <v>3</v>
+      </c>
+      <c r="B27" s="17">
+        <v>8.3571428571428577</v>
+      </c>
+      <c r="C27" s="17">
+        <v>-1.3571428571428577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="18">
+        <v>4</v>
+      </c>
+      <c r="B28" s="18">
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2.2857142857142865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/BC4400S23/Lecture10/univar_regression_handrolled_coeffs_fit.xlsx
+++ b/BC4400S23/Lecture10/univar_regression_handrolled_coeffs_fit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Desktop/Lecture10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400S23/Lecture10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{16426467-566F-4334-8DDD-BEC063E257DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16B6203C-8104-4F23-AA79-9716503AF10C}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{16426467-566F-4334-8DDD-BEC063E257DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70027B2C-971B-4D50-B69A-D4CB338B75C1}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{6589BF1D-2CC1-4E2F-8F47-CAC41A9A6C4E}"/>
   </bookViews>
@@ -969,7 +969,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>336732</xdr:colOff>
+      <xdr:colOff>336731</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>165472</xdr:rowOff>
     </xdr:to>
@@ -1006,16 +1006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>153843</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246371</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>124537</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2531</xdr:rowOff>
+      <xdr:colOff>419878</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155577</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1038,8 +1038,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8851529" y="3336472"/>
-          <a:ext cx="1935566" cy="737317"/>
+          <a:off x="11653044" y="3505978"/>
+          <a:ext cx="1479793" cy="568456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1050,16 +1050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>442198</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>70960</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>92302</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>8755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>64474</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>151858</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>388778</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1082,8 +1082,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11104755" y="3216931"/>
-          <a:ext cx="2234847" cy="1006184"/>
+          <a:off x="13458403" y="3554388"/>
+          <a:ext cx="1602762" cy="727180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,10 +1170,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1475,16 +1471,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E866E68-70AA-48CD-BC1B-6FC4AADFB492}">
   <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.3828125" customWidth="1"/>
     <col min="2" max="2" width="20.15234375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.3828125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.765625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.84375" style="1" customWidth="1"/>

--- a/BC4400S23/Lecture10/univar_regression_handrolled_coeffs_fit.xlsx
+++ b/BC4400S23/Lecture10/univar_regression_handrolled_coeffs_fit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400S23/Lecture10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{16426467-566F-4334-8DDD-BEC063E257DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70027B2C-971B-4D50-B69A-D4CB338B75C1}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{16426467-566F-4334-8DDD-BEC063E257DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF738C1-CB3A-4995-9C15-254C79640AFF}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{6589BF1D-2CC1-4E2F-8F47-CAC41A9A6C4E}"/>
   </bookViews>
@@ -963,15 +963,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>206830</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>98664</xdr:rowOff>
+      <xdr:colOff>142797</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>336731</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165472</xdr:rowOff>
+      <xdr:colOff>272698</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -994,8 +994,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9563101" y="2319350"/>
-          <a:ext cx="2742473" cy="992094"/>
+          <a:off x="11579201" y="2307823"/>
+          <a:ext cx="2742472" cy="995295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1007,15 +1007,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>246371</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146958</xdr:rowOff>
+      <xdr:colOff>118304</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>419878</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>155577</xdr:rowOff>
+      <xdr:colOff>291811</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>181191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1038,8 +1038,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11653044" y="3505978"/>
-          <a:ext cx="1479793" cy="568456"/>
+          <a:off x="11554708" y="3329428"/>
+          <a:ext cx="1479792" cy="565712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1050,16 +1050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>92302</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>8755</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>482908</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>388778</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>176098</xdr:rowOff>
+      <xdr:colOff>126241</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>73645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1082,8 +1082,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13458403" y="3554388"/>
-          <a:ext cx="1602762" cy="727180"/>
+          <a:off x="13225597" y="3248856"/>
+          <a:ext cx="1602762" cy="724436"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,6 +1170,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1471,7 +1475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E866E68-70AA-48CD-BC1B-6FC4AADFB492}">
   <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
